--- a/Paylocity Test Cases.xlsx
+++ b/Paylocity Test Cases.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
   <si>
     <t>Steps</t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>Test Notes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prerequisite Steps/Setup </t>
   </si>
   <si>
     <t>Variaions</t>
@@ -846,7 +843,7 @@
   <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -912,9 +909,7 @@
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="A4" s="5"/>
       <c r="B4" s="7"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -928,95 +923,95 @@
     </row>
     <row r="7" spans="1:11" s="8" customFormat="1" ht="30">
       <c r="A7" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="135">
       <c r="B8" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="60">
       <c r="B9" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="30">
       <c r="B10" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="14"/>
     </row>
     <row r="11" spans="1:11" ht="30">
       <c r="B11" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" s="14"/>
     </row>
     <row r="12" spans="1:11" ht="30">
       <c r="B12" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="14"/>
     </row>
     <row r="13" spans="1:11" ht="135">
       <c r="B13" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="8" customFormat="1">
       <c r="A15" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="B16" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="B17" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="30">
       <c r="B18" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="30">
       <c r="B19" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:3" s="15" customFormat="1">
       <c r="A20" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="B21" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="30">
       <c r="B22" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1024,40 +1019,40 @@
     </row>
     <row r="24" spans="1:3" s="15" customFormat="1">
       <c r="A24" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="B25" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="B26" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="30">
       <c r="B27" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="30">
       <c r="B28" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="30">
       <c r="B29" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="75">
       <c r="B30" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1065,24 +1060,24 @@
     </row>
     <row r="32" spans="1:3" s="8" customFormat="1">
       <c r="A32" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:5" s="10" customFormat="1">
       <c r="A33" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B33" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="D33" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="E33" s="12" t="s">
         <v>12</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:5">
